--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>User</t>
   </si>
@@ -53,21 +53,6 @@
     <t>height</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>size_shoes</t>
-  </si>
-  <si>
-    <t>size_clothes</t>
-  </si>
-  <si>
-    <t>magazine</t>
-  </si>
-  <si>
-    <t>introduction</t>
-  </si>
-  <si>
     <t>album</t>
   </si>
   <si>
@@ -104,9 +89,6 @@
     <t>avatar</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>error_code</t>
   </si>
   <si>
@@ -117,6 +99,48 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Data_Init</t>
+  </si>
+  <si>
+    <t>magezine</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>item_clothes</t>
+  </si>
+  <si>
+    <t>id_height</t>
+  </si>
+  <si>
+    <t>item_height</t>
+  </si>
+  <si>
+    <t>id_clothes</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>id_shoes</t>
+  </si>
+  <si>
+    <t>item_shoes</t>
+  </si>
+  <si>
+    <t>id_magezine</t>
+  </si>
+  <si>
+    <t>item_magezine</t>
+  </si>
+  <si>
+    <t>id_init</t>
   </si>
 </sst>
 </file>
@@ -475,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K20"/>
+  <dimension ref="B1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -487,7 +511,8 @@
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
@@ -499,14 +524,11 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5"/>
       <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
@@ -514,139 +536,201 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>24</v>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="26" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="Q26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="Q27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="Q28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="Q29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="Q30" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="Q31" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="Q32" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q33" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q34" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>17</v>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q35" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
